--- a/digital-objects/omap/10-palatine-tonsil-mics/v1.1/raw/omap-10-palatine-tonsil-mics.xlsx
+++ b/digital-objects/omap/10-palatine-tonsil-mics/v1.1/raw/omap-10-palatine-tonsil-mics.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ellenmq/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ellenmq/Documents/GitHub/hra-kg/digital-objects/omap/10-palatine-tonsil-mics/v1.1/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{250BD44D-8D72-6D44-9E14-747635D748BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC6439A-6545-9D4D-888C-77C6ED897120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1460" yWindow="760" windowWidth="34560" windowHeight="20680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="omap-10-palatine-tonsil-macsima" sheetId="1" r:id="rId1"/>
